--- a/biology/Biochimie/Acide_pyroglutamique/Acide_pyroglutamique.xlsx
+++ b/biology/Biochimie/Acide_pyroglutamique/Acide_pyroglutamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide pyroglutamique, également appelé 5-oxoproline et acide pidolique, est un acide aminé non standard présent dans certaines protéines par cyclisation d'un résidu d'acide glutamique donnant un lactame.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa molécule est organisée autour d'un noyau pyrrolidine.
 Il est soluble dans l'eau et dans le tert-butanol et très peu soluble dans la plupart des autres solvants organiques.
@@ -544,7 +558,9 @@
           <t>Présence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve notamment dans la bactériorhodopsine, et plus généralement chez les plantes.
 Les résidus de glutamine N-terminaux peuvent également se cycliser spontanément en pyroglutamate.
@@ -576,7 +592,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'acide pyroglutamique peut être obtenu en chauffant simplement une solution à parts égales d'acide glutamique et d'eau à 135–140 °C.
 L'acide domoïque a pu être synthétisé in vitro à partir d'acide pyroglutamique.
